--- a/va_facility_data_2025-02-20/Middletown VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Middletown%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Middletown VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Middletown%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rf2adb830556745edbede56a149264e17"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R3b359bc7261e4f939c483ec6a3ca9551"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Re251717099e44c108ff08e5108fa2217"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rbf37e1186dce433b891cd709c2ccba68"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rcdfd6f0c17754dbbafcbf5e95c7ff6ae"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Re414f202bc91451f8296212ab41934ec"/>
   </x:sheets>
 </x:workbook>
 </file>
